--- a/reports/Angola_export_top_5_partners_2007-2022.xlsx
+++ b/reports/Angola_export_top_5_partners_2007-2022.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/develop/cipf-comtrade/reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814ECC91-1034-794C-A6BC-AB6C4EF691CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="800" yWindow="840" windowWidth="22240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>partnerDesc</t>
   </si>
@@ -79,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -143,13 +165,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,49 +462,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -569,7 +606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -577,43 +614,43 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.06594233192399337</v>
+        <v>6.5942331923993375E-2</v>
       </c>
       <c r="D4">
-        <v>0.3046627881046969</v>
+        <v>0.30466278810469688</v>
       </c>
       <c r="E4">
-        <v>0.05869404136405009</v>
+        <v>5.8694041364050091E-2</v>
       </c>
       <c r="F4">
-        <v>0.05380177968926761</v>
+        <v>5.3801779689267609E-2</v>
       </c>
       <c r="G4">
-        <v>0.007352030102340215</v>
+        <v>7.3520301023402151E-3</v>
       </c>
       <c r="H4">
-        <v>0.03600258529061574</v>
+        <v>3.6002585290615743E-2</v>
       </c>
       <c r="I4">
-        <v>0.04332283804012428</v>
+        <v>4.3322838040124281E-2</v>
       </c>
       <c r="J4">
-        <v>0.0142138880526576</v>
+        <v>1.42138880526576E-2</v>
       </c>
       <c r="L4">
-        <v>0.04079248397464719</v>
+        <v>4.0792483974647187E-2</v>
       </c>
       <c r="M4">
-        <v>0.0175903409578859</v>
+        <v>1.7590340957885899E-2</v>
       </c>
       <c r="N4">
-        <v>0.001302335201072264</v>
+        <v>1.302335201072264E-3</v>
       </c>
       <c r="O4">
-        <v>0.2461790942808313</v>
+        <v>0.24617909428083129</v>
       </c>
       <c r="P4">
-        <v>0.008568315670867441</v>
+        <v>8.5683156708674414E-3</v>
       </c>
       <c r="Q4">
         <v>2913186035</v>
@@ -655,7 +692,7 @@
         <v>378529191</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2009</v>
       </c>
@@ -663,40 +700,40 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.05720705362188568</v>
+        <v>5.7207053621885683E-2</v>
       </c>
       <c r="D5">
-        <v>0.3925760792994628</v>
+        <v>0.39257607929946281</v>
       </c>
       <c r="E5">
-        <v>0.07456323987000783</v>
+        <v>7.4563239870007833E-2</v>
       </c>
       <c r="F5">
-        <v>0.09004946255898966</v>
+        <v>9.0049462558989657E-2</v>
       </c>
       <c r="G5">
-        <v>2.425650269126078E-06</v>
+        <v>2.4256502691260781E-6</v>
       </c>
       <c r="H5">
-        <v>0.03054923076269638</v>
+        <v>3.0549230762696378E-2</v>
       </c>
       <c r="I5">
-        <v>0.02841215396205244</v>
+        <v>2.841215396205244E-2</v>
       </c>
       <c r="J5">
-        <v>0.007152418369910297</v>
+        <v>7.1524183699102966E-3</v>
       </c>
       <c r="L5">
-        <v>0.03499111110287718</v>
+        <v>3.4991111102877177E-2</v>
       </c>
       <c r="M5">
-        <v>0.01821179784582477</v>
+        <v>1.821179784582477E-2</v>
       </c>
       <c r="O5">
         <v>0.1896774099539851</v>
       </c>
       <c r="P5">
-        <v>0.007389567029050103</v>
+        <v>7.3895670290501031E-3</v>
       </c>
       <c r="Q5">
         <v>2324861006</v>
@@ -735,7 +772,7 @@
         <v>300307657</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -743,46 +780,46 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.0767716066237821</v>
+        <v>7.6771606623782102E-2</v>
       </c>
       <c r="D6">
-        <v>0.3984490182846245</v>
+        <v>0.39844901828462448</v>
       </c>
       <c r="E6">
-        <v>0.04206378270661249</v>
+        <v>4.2063782706612492E-2</v>
       </c>
       <c r="F6">
-        <v>0.09727464766139729</v>
+        <v>9.727464766139729E-2</v>
       </c>
       <c r="G6">
-        <v>0.004180282412202356</v>
+        <v>4.180282412202356E-3</v>
       </c>
       <c r="H6">
-        <v>0.01376511944641702</v>
+        <v>1.3765119446417021E-2</v>
       </c>
       <c r="I6">
-        <v>0.05130832674782222</v>
+        <v>5.1308326747822222E-2</v>
       </c>
       <c r="J6">
-        <v>0.01646498647605398</v>
+        <v>1.6464986476053978E-2</v>
       </c>
       <c r="K6">
-        <v>0.002732633817436005</v>
+        <v>2.7326338174360051E-3</v>
       </c>
       <c r="L6">
-        <v>0.0324101334412888</v>
+        <v>3.2410133441288798E-2</v>
       </c>
       <c r="M6">
-        <v>0.01850348522276355</v>
+        <v>1.8503485222763551E-2</v>
       </c>
       <c r="N6">
-        <v>0.001454266044028525</v>
+        <v>1.454266044028525E-3</v>
       </c>
       <c r="O6">
-        <v>0.1894199830868004</v>
+        <v>0.18941998308680039</v>
       </c>
       <c r="P6">
-        <v>0.006961233219206184</v>
+        <v>6.9612332192061843E-3</v>
       </c>
       <c r="Q6">
         <v>4039116578</v>
@@ -827,7 +864,7 @@
         <v>366245201</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -835,37 +872,37 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0.3667281337706191</v>
+        <v>0.36672813377061908</v>
       </c>
       <c r="E7">
-        <v>0.03292356015679516</v>
+        <v>3.2923560156795158E-2</v>
       </c>
       <c r="F7">
-        <v>0.1029999564522558</v>
+        <v>0.10299995645225581</v>
       </c>
       <c r="G7">
-        <v>0.03417582756822362</v>
+        <v>3.417582756822362E-2</v>
       </c>
       <c r="H7">
-        <v>0.02522999820441794</v>
+        <v>2.5229998204417941E-2</v>
       </c>
       <c r="I7">
-        <v>0.0810884375116869</v>
+        <v>8.1088437511686901E-2</v>
       </c>
       <c r="J7">
-        <v>0.02427442468589165</v>
+        <v>2.4274424685891648E-2</v>
       </c>
       <c r="L7">
-        <v>0.02555584958783052</v>
+        <v>2.5555849587830519E-2</v>
       </c>
       <c r="M7">
-        <v>0.009786817679230108</v>
+        <v>9.7868176792301077E-3</v>
       </c>
       <c r="O7">
-        <v>0.2480155262639187</v>
+        <v>0.24801552626391871</v>
       </c>
       <c r="P7">
-        <v>0.005764410550016571</v>
+        <v>5.7644105500165707E-3</v>
       </c>
       <c r="R7">
         <v>24360792847</v>
@@ -901,7 +938,7 @@
         <v>382914749</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -909,43 +946,43 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>0.04967300000265346</v>
+        <v>4.9673000002653463E-2</v>
       </c>
       <c r="D8">
-        <v>0.4757065559094001</v>
+        <v>0.47570655590940009</v>
       </c>
       <c r="E8">
-        <v>0.01660558671051869</v>
+        <v>1.6605586710518691E-2</v>
       </c>
       <c r="F8">
-        <v>0.09782331152694392</v>
+        <v>9.7823311526943915E-2</v>
       </c>
       <c r="G8">
-        <v>0.01538273671045244</v>
+        <v>1.5382736710452439E-2</v>
       </c>
       <c r="H8">
-        <v>0.01532918188060395</v>
+        <v>1.532918188060395E-2</v>
       </c>
       <c r="I8">
-        <v>0.06632223515685305</v>
+        <v>6.6322235156853052E-2</v>
       </c>
       <c r="J8">
-        <v>0.0283455054393669</v>
+        <v>2.8345505439366901E-2</v>
       </c>
       <c r="L8">
-        <v>0.04235315824253926</v>
+        <v>4.2353158242539261E-2</v>
       </c>
       <c r="M8">
-        <v>0.02296971674563771</v>
+        <v>2.2969716745637709E-2</v>
       </c>
       <c r="N8">
-        <v>0.002984931486156041</v>
+        <v>2.9849314861560409E-3</v>
       </c>
       <c r="O8">
-        <v>0.09306011232545132</v>
+        <v>9.3060112325451319E-2</v>
       </c>
       <c r="P8">
-        <v>0.009269905234479511</v>
+        <v>9.2699052344795106E-3</v>
       </c>
       <c r="Q8">
         <v>3519981595</v>
@@ -987,7 +1024,7 @@
         <v>656894003</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2013</v>
       </c>
@@ -995,46 +1032,46 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.04880968614946562</v>
+        <v>4.8809686149465618E-2</v>
       </c>
       <c r="D9">
-        <v>0.4718068681167952</v>
+        <v>0.47180686811679518</v>
       </c>
       <c r="E9">
-        <v>0.02029830942885988</v>
+        <v>2.0298309428859879E-2</v>
       </c>
       <c r="F9">
-        <v>0.09989632805393196</v>
+        <v>9.9896328053931963E-2</v>
       </c>
       <c r="G9">
-        <v>0.01520271495601454</v>
+        <v>1.5202714956014539E-2</v>
       </c>
       <c r="H9">
-        <v>0.02432799765534621</v>
+        <v>2.4327997655346208E-2</v>
       </c>
       <c r="I9">
-        <v>0.05917693906158138</v>
+        <v>5.9176939061581377E-2</v>
       </c>
       <c r="J9">
-        <v>0.04411543395975515</v>
+        <v>4.4115433959755153E-2</v>
       </c>
       <c r="K9">
-        <v>0.006258654027990216</v>
+        <v>6.2586540279902158E-3</v>
       </c>
       <c r="L9">
-        <v>0.02589827347323211</v>
+        <v>2.5898273473232109E-2</v>
       </c>
       <c r="M9">
-        <v>0.03665178788428935</v>
+        <v>3.6651787884289348E-2</v>
       </c>
       <c r="N9">
-        <v>0.002962039407430326</v>
+        <v>2.9620394074303261E-3</v>
       </c>
       <c r="O9">
-        <v>0.07411318400206231</v>
+        <v>7.4113184002062307E-2</v>
       </c>
       <c r="P9">
-        <v>0.01167377227441593</v>
+        <v>1.167377227441593E-2</v>
       </c>
       <c r="Q9">
         <v>3305027169</v>
@@ -1079,7 +1116,7 @@
         <v>790460615</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
@@ -1087,46 +1124,46 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0.04635324991211592</v>
+        <v>4.6353249912115917E-2</v>
       </c>
       <c r="D10">
         <v>0.4691665128070483</v>
       </c>
       <c r="E10">
-        <v>0.03289134239237289</v>
+        <v>3.2891342392372888E-2</v>
       </c>
       <c r="F10">
-        <v>0.07682349022592792</v>
+        <v>7.6823490225927923E-2</v>
       </c>
       <c r="G10">
-        <v>0.02297243221311275</v>
+        <v>2.2972432213112751E-2</v>
       </c>
       <c r="H10">
-        <v>0.03859414397716091</v>
+        <v>3.8594143977160912E-2</v>
       </c>
       <c r="I10">
-        <v>0.03969523189796386</v>
+        <v>3.969523189796386E-2</v>
       </c>
       <c r="J10">
-        <v>0.03282705349366172</v>
+        <v>3.2827053493661718E-2</v>
       </c>
       <c r="K10">
-        <v>0.001664909417304544</v>
+        <v>1.664909417304544E-3</v>
       </c>
       <c r="L10">
-        <v>0.03325657708965613</v>
+        <v>3.3256577089656132E-2</v>
       </c>
       <c r="M10">
-        <v>0.06351294869195651</v>
+        <v>6.3512948691956506E-2</v>
       </c>
       <c r="N10">
-        <v>0.01388259029326578</v>
+        <v>1.388259029326578E-2</v>
       </c>
       <c r="O10">
-        <v>0.0434413613288078</v>
+        <v>4.3441361328807798E-2</v>
       </c>
       <c r="P10">
-        <v>0.0147902553617675</v>
+        <v>1.47902553617675E-2</v>
       </c>
       <c r="Q10">
         <v>2719654992</v>
@@ -1171,7 +1208,7 @@
         <v>867779323</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
@@ -1179,46 +1216,46 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.03052676543802403</v>
+        <v>3.0526765438024031E-2</v>
       </c>
       <c r="D11">
-        <v>0.4221250381426905</v>
+        <v>0.42212503814269048</v>
       </c>
       <c r="E11">
-        <v>0.04715059738290443</v>
+        <v>4.7150597382904433E-2</v>
       </c>
       <c r="F11">
-        <v>0.07889003729457497</v>
+        <v>7.8890037294574972E-2</v>
       </c>
       <c r="G11">
-        <v>0.03259447843189024</v>
+        <v>3.2594478431890242E-2</v>
       </c>
       <c r="H11">
-        <v>0.03263450081486052</v>
+        <v>3.2634500814860523E-2</v>
       </c>
       <c r="I11">
-        <v>0.04158573036345297</v>
+        <v>4.158573036345297E-2</v>
       </c>
       <c r="J11">
-        <v>0.03535319849673448</v>
+        <v>3.5353198496734482E-2</v>
       </c>
       <c r="K11">
-        <v>0.01345914329221472</v>
+        <v>1.3459143292214719E-2</v>
       </c>
       <c r="L11">
-        <v>0.04056135254633191</v>
+        <v>4.0561352546331912E-2</v>
       </c>
       <c r="M11">
-        <v>0.06620429078390995</v>
+        <v>6.620429078390995E-2</v>
       </c>
       <c r="N11">
-        <v>0.001319565357154199</v>
+        <v>1.319565357154199E-3</v>
       </c>
       <c r="O11">
-        <v>0.03731182458005393</v>
+        <v>3.7311824580053929E-2</v>
       </c>
       <c r="P11">
-        <v>0.01960957521484989</v>
+        <v>1.9609575214849888E-2</v>
       </c>
       <c r="Q11">
         <v>1035618608.9</v>
@@ -1230,40 +1267,40 @@
         <v>1599581068.28</v>
       </c>
       <c r="T11">
-        <v>2676339582.88</v>
+        <v>2676339582.8800001</v>
       </c>
       <c r="U11">
-        <v>1105765642.94</v>
+        <v>1105765642.9400001</v>
       </c>
       <c r="V11">
         <v>1107123399.78</v>
       </c>
       <c r="W11">
-        <v>1410793302.57</v>
+        <v>1410793302.5699999</v>
       </c>
       <c r="X11">
-        <v>1199355048.66</v>
+        <v>1199355048.6600001</v>
       </c>
       <c r="Y11">
-        <v>456600594.7</v>
+        <v>456600594.69999999</v>
       </c>
       <c r="Z11">
-        <v>1376041349.17</v>
+        <v>1376041349.1700001</v>
       </c>
       <c r="AA11">
-        <v>2245976425.64</v>
+        <v>2245976425.6399999</v>
       </c>
       <c r="AB11">
-        <v>44766172.24</v>
+        <v>44766172.240000002</v>
       </c>
       <c r="AC11">
-        <v>1265801316.08</v>
+        <v>1265801316.0799999</v>
       </c>
       <c r="AD11">
-        <v>665253613.14</v>
+        <v>665253613.13999999</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -1271,91 +1308,91 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.03113666153581683</v>
+        <v>3.1136661535816831E-2</v>
       </c>
       <c r="D12">
-        <v>0.4962342403049608</v>
+        <v>0.49623424030496083</v>
       </c>
       <c r="E12">
-        <v>0.0324641925718693</v>
+        <v>3.2464192571869298E-2</v>
       </c>
       <c r="F12">
-        <v>0.06945897211848168</v>
+        <v>6.9458972118481677E-2</v>
       </c>
       <c r="G12">
-        <v>0.01741251844912743</v>
+        <v>1.7412518449127432E-2</v>
       </c>
       <c r="H12">
-        <v>0.01810392352977332</v>
+        <v>1.810392352977332E-2</v>
       </c>
       <c r="I12">
-        <v>0.04049072030967737</v>
+        <v>4.0490720309677368E-2</v>
       </c>
       <c r="J12">
-        <v>0.03034595456022566</v>
+        <v>3.0345954560225659E-2</v>
       </c>
       <c r="K12">
-        <v>0.004093377229084484</v>
+        <v>4.0933772290844836E-3</v>
       </c>
       <c r="L12">
-        <v>0.04665532055254558</v>
+        <v>4.6655320552545579E-2</v>
       </c>
       <c r="M12">
-        <v>0.03143862103022008</v>
+        <v>3.1438621030220083E-2</v>
       </c>
       <c r="N12">
-        <v>0.0006211804318518039</v>
+        <v>6.2118043185180392E-4</v>
       </c>
       <c r="O12">
-        <v>0.05437584572255004</v>
+        <v>5.437584572255004E-2</v>
       </c>
       <c r="P12">
-        <v>0.02858089830457178</v>
+        <v>2.8580898304571781E-2</v>
       </c>
       <c r="Q12">
-        <v>873616866.17</v>
+        <v>873616866.16999996</v>
       </c>
       <c r="R12">
         <v>13923091960.35</v>
       </c>
       <c r="S12">
-        <v>910864067.58</v>
+        <v>910864067.58000004</v>
       </c>
       <c r="T12">
         <v>1948845077.04</v>
       </c>
       <c r="U12">
-        <v>488551728.07</v>
+        <v>488551728.06999999</v>
       </c>
       <c r="V12">
-        <v>507950825.79</v>
+        <v>507950825.79000002</v>
       </c>
       <c r="W12">
         <v>1136068365.75</v>
       </c>
       <c r="X12">
-        <v>851431605.58</v>
+        <v>851431605.58000004</v>
       </c>
       <c r="Y12">
-        <v>114849929.65</v>
+        <v>114849929.65000001</v>
       </c>
       <c r="Z12">
-        <v>1309031634.12</v>
+        <v>1309031634.1199999</v>
       </c>
       <c r="AA12">
-        <v>882089094.54</v>
+        <v>882089094.53999996</v>
       </c>
       <c r="AB12">
-        <v>17428769.67</v>
+        <v>17428769.670000002</v>
       </c>
       <c r="AC12">
-        <v>1525650265.39</v>
+        <v>1525650265.3900001</v>
       </c>
       <c r="AD12">
-        <v>801908540.53</v>
+        <v>801908540.52999997</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2017</v>
       </c>
@@ -1363,91 +1400,91 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.03093218619931541</v>
+        <v>3.0932186199315408E-2</v>
       </c>
       <c r="D13">
-        <v>0.5582905862993705</v>
+        <v>0.55829058629937045</v>
       </c>
       <c r="E13">
-        <v>0.009477177995349161</v>
+        <v>9.4771779953491606E-3</v>
       </c>
       <c r="F13">
-        <v>0.08279819518864313</v>
+        <v>8.2798195188643134E-2</v>
       </c>
       <c r="G13">
-        <v>0.01319313021628887</v>
+        <v>1.319313021628887E-2</v>
       </c>
       <c r="H13">
-        <v>0.002668491467085852</v>
+        <v>2.668491467085852E-3</v>
       </c>
       <c r="I13">
-        <v>0.03978713952293608</v>
+        <v>3.9787139522936082E-2</v>
       </c>
       <c r="J13">
-        <v>0.009591429252286676</v>
+        <v>9.5914292522866762E-3</v>
       </c>
       <c r="K13">
-        <v>0.007848667913853972</v>
+        <v>7.8486679138539718E-3</v>
       </c>
       <c r="L13">
-        <v>0.03846309167658504</v>
+        <v>3.8463091676585043E-2</v>
       </c>
       <c r="M13">
-        <v>0.02938778881973147</v>
+        <v>2.9387788819731472E-2</v>
       </c>
       <c r="N13">
-        <v>0.005450939828267304</v>
+        <v>5.4509398282673038E-3</v>
       </c>
       <c r="O13">
-        <v>0.03092701028654166</v>
+        <v>3.092701028654166E-2</v>
       </c>
       <c r="P13">
-        <v>0.02912256035609649</v>
+        <v>2.9122560356096491E-2</v>
       </c>
       <c r="Q13">
         <v>1079684281.74</v>
       </c>
       <c r="R13">
-        <v>19487066539.26</v>
+        <v>19487066539.259998</v>
       </c>
       <c r="S13">
-        <v>330799771.18</v>
+        <v>330799771.18000001</v>
       </c>
       <c r="T13">
-        <v>2890061159.13</v>
+        <v>2890061159.1300001</v>
       </c>
       <c r="U13">
-        <v>460504641.66</v>
+        <v>460504641.66000003</v>
       </c>
       <c r="V13">
-        <v>93143377.40000001</v>
+        <v>93143377.400000006</v>
       </c>
       <c r="W13">
         <v>1388765374.73</v>
       </c>
       <c r="X13">
-        <v>334787697.72</v>
+        <v>334787697.72000003</v>
       </c>
       <c r="Y13">
-        <v>273956820.4</v>
+        <v>273956820.39999998</v>
       </c>
       <c r="Z13">
-        <v>1342549642.07</v>
+        <v>1342549642.0699999</v>
       </c>
       <c r="AA13">
-        <v>1025777274.82</v>
+        <v>1025777274.8200001</v>
       </c>
       <c r="AB13">
-        <v>190264406.64</v>
+        <v>190264406.63999999</v>
       </c>
       <c r="AC13">
-        <v>1079503617.12</v>
+        <v>1079503617.1199999</v>
       </c>
       <c r="AD13">
         <v>1016519506.83</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2018</v>
       </c>
@@ -1455,91 +1492,91 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.01591463842528607</v>
+        <v>1.5914638425286069E-2</v>
       </c>
       <c r="D14">
-        <v>0.6027860229334457</v>
+        <v>0.60278602293344574</v>
       </c>
       <c r="E14">
-        <v>0.01410253980305503</v>
+        <v>1.4102539803055029E-2</v>
       </c>
       <c r="F14">
-        <v>0.09268329494090959</v>
+        <v>9.2683294940909586E-2</v>
       </c>
       <c r="G14">
-        <v>0.01151227919802529</v>
+        <v>1.1512279198025289E-2</v>
       </c>
       <c r="H14">
-        <v>0.00363161807814283</v>
+        <v>3.63161807814283E-3</v>
       </c>
       <c r="I14">
-        <v>0.00356636002260148</v>
+        <v>3.5663600226014799E-3</v>
       </c>
       <c r="J14">
-        <v>0.02613317730585349</v>
+        <v>2.6133177305853489E-2</v>
       </c>
       <c r="K14">
-        <v>0.008569607930740375</v>
+        <v>8.5696079307403753E-3</v>
       </c>
       <c r="L14">
-        <v>0.02824355366267785</v>
+        <v>2.8243553662677851E-2</v>
       </c>
       <c r="M14">
-        <v>0.03038234957634849</v>
+        <v>3.0382349576348489E-2</v>
       </c>
       <c r="N14">
-        <v>0.01597518307668777</v>
+        <v>1.5975183076687771E-2</v>
       </c>
       <c r="O14">
-        <v>0.03373882813876241</v>
+        <v>3.373882813876241E-2</v>
       </c>
       <c r="P14">
-        <v>0.02112956293982593</v>
+        <v>2.112956293982593E-2</v>
       </c>
       <c r="Q14">
-        <v>647164296.6059999</v>
+        <v>647164296.60599995</v>
       </c>
       <c r="R14">
-        <v>24512124128.176</v>
+        <v>24512124128.175999</v>
       </c>
       <c r="S14">
-        <v>573475815.668</v>
+        <v>573475815.66799998</v>
       </c>
       <c r="T14">
-        <v>3768940127.616</v>
+        <v>3768940127.6160002</v>
       </c>
       <c r="U14">
-        <v>468143596.507</v>
+        <v>468143596.50700003</v>
       </c>
       <c r="V14">
         <v>147678727.991</v>
       </c>
       <c r="W14">
-        <v>145025027.512</v>
+        <v>145025027.51199999</v>
       </c>
       <c r="X14">
-        <v>1062698306.884</v>
+        <v>1062698306.8839999</v>
       </c>
       <c r="Y14">
-        <v>348480696.858</v>
+        <v>348480696.85799998</v>
       </c>
       <c r="Z14">
-        <v>1148516168.028</v>
+        <v>1148516168.0280001</v>
       </c>
       <c r="AA14">
         <v>1235489702.46</v>
       </c>
       <c r="AB14">
-        <v>649626327.831</v>
+        <v>649626327.83099997</v>
       </c>
       <c r="AC14">
-        <v>1371979959.409</v>
+        <v>1371979959.4089999</v>
       </c>
       <c r="AD14">
-        <v>859227735.631</v>
+        <v>859227735.63100004</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2019</v>
       </c>
@@ -1547,91 +1584,91 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.001102141825357053</v>
+        <v>1.1021418253570529E-3</v>
       </c>
       <c r="D15">
-        <v>0.6078306104178554</v>
+        <v>0.60783061041785535</v>
       </c>
       <c r="E15">
-        <v>0.01820648744915028</v>
+        <v>1.820648744915028E-2</v>
       </c>
       <c r="F15">
-        <v>0.09530615482056499</v>
+        <v>9.5306154820564995E-2</v>
       </c>
       <c r="G15">
-        <v>0.02207134925761305</v>
+        <v>2.2071349257613049E-2</v>
       </c>
       <c r="H15">
-        <v>0.005856175088536067</v>
+        <v>5.8561750885360673E-3</v>
       </c>
       <c r="I15">
-        <v>0.005643933050806513</v>
+        <v>5.6439330508065129E-3</v>
       </c>
       <c r="J15">
-        <v>0.03130483763651389</v>
+        <v>3.1304837636513892E-2</v>
       </c>
       <c r="K15">
-        <v>0.009476664074610531</v>
+        <v>9.4766640746105305E-3</v>
       </c>
       <c r="L15">
-        <v>0.009801843610403446</v>
+        <v>9.8018436104034459E-3</v>
       </c>
       <c r="M15">
-        <v>0.03576407567594636</v>
+        <v>3.5764075675946361E-2</v>
       </c>
       <c r="N15">
-        <v>0.01781219448848302</v>
+        <v>1.7812194488483021E-2</v>
       </c>
       <c r="O15">
-        <v>0.02535164716796266</v>
+        <v>2.5351647167962659E-2</v>
       </c>
       <c r="P15">
-        <v>0.03196311855943963</v>
+        <v>3.1963118559439632E-2</v>
       </c>
       <c r="Q15">
-        <v>39051590.475</v>
+        <v>39051590.475000001</v>
       </c>
       <c r="R15">
-        <v>21536930665.45</v>
+        <v>21536930665.450001</v>
       </c>
       <c r="S15">
-        <v>645100544.6799999</v>
+        <v>645100544.67999995</v>
       </c>
       <c r="T15">
-        <v>3376931028.449</v>
+        <v>3376931028.4489999</v>
       </c>
       <c r="U15">
-        <v>782042086.244</v>
+        <v>782042086.24399996</v>
       </c>
       <c r="V15">
         <v>207498659.47</v>
       </c>
       <c r="W15">
-        <v>199978403.049</v>
+        <v>199978403.04899999</v>
       </c>
       <c r="X15">
-        <v>1109207246.419</v>
+        <v>1109207246.4189999</v>
       </c>
       <c r="Y15">
-        <v>335781472.036</v>
+        <v>335781472.03600001</v>
       </c>
       <c r="Z15">
         <v>347303381.259</v>
       </c>
       <c r="AA15">
-        <v>1267208996.956</v>
+        <v>1267208996.9560001</v>
       </c>
       <c r="AB15">
-        <v>631129777.15</v>
+        <v>631129777.14999998</v>
       </c>
       <c r="AC15">
-        <v>898271093.876</v>
+        <v>898271093.87600005</v>
       </c>
       <c r="AD15">
-        <v>1132531755.505</v>
+        <v>1132531755.5050001</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
@@ -1639,91 +1676,91 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.004681740376881094</v>
+        <v>4.6817403768810942E-3</v>
       </c>
       <c r="D16">
-        <v>0.5970790351617583</v>
+        <v>0.59707903516175831</v>
       </c>
       <c r="E16">
-        <v>0.01954456804143894</v>
+        <v>1.9544568041438941E-2</v>
       </c>
       <c r="F16">
-        <v>0.07280577214839432</v>
+        <v>7.2805772148394315E-2</v>
       </c>
       <c r="G16">
-        <v>0.01352084233144395</v>
+        <v>1.352084233144395E-2</v>
       </c>
       <c r="H16">
-        <v>0.01058588629142127</v>
+        <v>1.058588629142127E-2</v>
       </c>
       <c r="I16">
-        <v>0.01355048214981663</v>
+        <v>1.355048214981663E-2</v>
       </c>
       <c r="J16">
-        <v>0.01176024855644979</v>
+        <v>1.176024855644979E-2</v>
       </c>
       <c r="K16">
-        <v>0.02025125212307857</v>
+        <v>2.0251252123078569E-2</v>
       </c>
       <c r="L16">
-        <v>0.0101006708156602</v>
+        <v>1.01006708156602E-2</v>
       </c>
       <c r="M16">
-        <v>0.0344480877994833</v>
+        <v>3.4448087799483301E-2</v>
       </c>
       <c r="N16">
-        <v>0.03959682758954005</v>
+        <v>3.959682758954005E-2</v>
       </c>
       <c r="O16">
-        <v>0.01753159069470791</v>
+        <v>1.7531590694707909E-2</v>
       </c>
       <c r="P16">
-        <v>0.04739220149696906</v>
+        <v>4.7392201496969058E-2</v>
       </c>
       <c r="Q16">
-        <v>103628007.997</v>
+        <v>103628007.99699999</v>
       </c>
       <c r="R16">
         <v>13216049171.826</v>
       </c>
       <c r="S16">
-        <v>432609348.288</v>
+        <v>432609348.28799999</v>
       </c>
       <c r="T16">
         <v>1611519762.112</v>
       </c>
       <c r="U16">
-        <v>299277158.59</v>
+        <v>299277158.58999997</v>
       </c>
       <c r="V16">
         <v>234313358.058</v>
       </c>
       <c r="W16">
-        <v>299933221.312</v>
+        <v>299933221.31199998</v>
       </c>
       <c r="X16">
-        <v>260307286.041</v>
+        <v>260307286.04100001</v>
       </c>
       <c r="Y16">
-        <v>448251450.961</v>
+        <v>448251450.96100003</v>
       </c>
       <c r="Z16">
         <v>223573353.454</v>
       </c>
       <c r="AA16">
-        <v>762491387.9450001</v>
+        <v>762491387.94500005</v>
       </c>
       <c r="AB16">
-        <v>876456197.0089999</v>
+        <v>876456197.00899994</v>
       </c>
       <c r="AC16">
-        <v>388053090.189</v>
+        <v>388053090.18900001</v>
       </c>
       <c r="AD16">
-        <v>1049002943.43</v>
+        <v>1049002943.4299999</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2021</v>
       </c>
@@ -1731,91 +1768,91 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.01181697253810421</v>
+        <v>1.1816972538104211E-2</v>
       </c>
       <c r="D17">
-        <v>0.5818731734037904</v>
+        <v>0.58187317340379041</v>
       </c>
       <c r="E17">
-        <v>0.01047510824676903</v>
+        <v>1.0475108246769029E-2</v>
       </c>
       <c r="F17">
-        <v>0.08727014565663203</v>
+        <v>8.7270145656632034E-2</v>
       </c>
       <c r="G17">
-        <v>0.01833436038419646</v>
+        <v>1.833436038419646E-2</v>
       </c>
       <c r="H17">
-        <v>0.01384688376617343</v>
+        <v>1.3846883766173429E-2</v>
       </c>
       <c r="I17">
-        <v>0.003919274010727133</v>
+        <v>3.9192740107271331E-3</v>
       </c>
       <c r="J17">
-        <v>0.002402582850031498</v>
+        <v>2.4025828500314982E-3</v>
       </c>
       <c r="K17">
-        <v>0.02328427818847179</v>
+        <v>2.3284278188471789E-2</v>
       </c>
       <c r="L17">
-        <v>0.0150660327595155</v>
+        <v>1.5066032759515499E-2</v>
       </c>
       <c r="M17">
-        <v>0.02303270099473908</v>
+        <v>2.3032700994739079E-2</v>
       </c>
       <c r="N17">
-        <v>0.02914912998576133</v>
+        <v>2.914912998576133E-2</v>
       </c>
       <c r="O17">
-        <v>0.01345451359870507</v>
+        <v>1.3454513598705069E-2</v>
       </c>
       <c r="P17">
-        <v>0.04059651320826203</v>
+        <v>4.0596513208262033E-2</v>
       </c>
       <c r="Q17">
-        <v>407356591.173</v>
+        <v>407356591.17299998</v>
       </c>
       <c r="R17">
-        <v>20058426271.913</v>
+        <v>20058426271.912998</v>
       </c>
       <c r="S17">
-        <v>361099627.998</v>
+        <v>361099627.99800003</v>
       </c>
       <c r="T17">
         <v>3008390595.072</v>
       </c>
       <c r="U17">
-        <v>632025040.539</v>
+        <v>632025040.53900003</v>
       </c>
       <c r="V17">
-        <v>477332019.785</v>
+        <v>477332019.78500003</v>
       </c>
       <c r="W17">
-        <v>135105848.451</v>
+        <v>135105848.45100001</v>
       </c>
       <c r="X17">
-        <v>82822225.12100001</v>
+        <v>82822225.121000007</v>
       </c>
       <c r="Y17">
-        <v>802659408.761</v>
+        <v>802659408.76100004</v>
       </c>
       <c r="Z17">
         <v>519358721.333</v>
       </c>
       <c r="AA17">
-        <v>793986998.994</v>
+        <v>793986998.99399996</v>
       </c>
       <c r="AB17">
         <v>1004833529.77</v>
       </c>
       <c r="AC17">
-        <v>463806171.825</v>
+        <v>463806171.82499999</v>
       </c>
       <c r="AD17">
         <v>1399449578.198</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2022</v>
       </c>
@@ -1823,85 +1860,85 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.0219327430282987</v>
+        <v>2.1932743028298701E-2</v>
       </c>
       <c r="D18">
-        <v>0.4272079546758477</v>
+        <v>0.42720795467584771</v>
       </c>
       <c r="E18">
-        <v>0.0712147200923739</v>
+        <v>7.1214720092373895E-2</v>
       </c>
       <c r="F18">
         <v>0.1002655526602106</v>
       </c>
       <c r="G18">
-        <v>0.0369340896128195</v>
+        <v>3.69340896128195E-2</v>
       </c>
       <c r="H18">
-        <v>0.06681018138928436</v>
+        <v>6.6810181389284365E-2</v>
       </c>
       <c r="I18">
-        <v>0.01391762783392124</v>
+        <v>1.3917627833921239E-2</v>
       </c>
       <c r="J18">
-        <v>0.01392645730776543</v>
+        <v>1.3926457307765429E-2</v>
       </c>
       <c r="K18">
-        <v>0.008568822537402611</v>
+        <v>8.5688225374026105E-3</v>
       </c>
       <c r="L18">
-        <v>0.01299223074618062</v>
+        <v>1.2992230746180619E-2</v>
       </c>
       <c r="M18">
-        <v>0.04334829274940261</v>
+        <v>4.3348292749402613E-2</v>
       </c>
       <c r="N18">
-        <v>0.01726913279200318</v>
+        <v>1.7269132792003181E-2</v>
       </c>
       <c r="O18">
-        <v>0.01270496205469878</v>
+        <v>1.270496205469878E-2</v>
       </c>
       <c r="P18">
-        <v>0.03248483991386415</v>
+        <v>3.2484839913864152E-2</v>
       </c>
       <c r="Q18">
-        <v>1124600339.68</v>
+        <v>1124600339.6800001</v>
       </c>
       <c r="R18">
-        <v>21905067246.836</v>
+        <v>21905067246.835999</v>
       </c>
       <c r="S18">
         <v>3651531333.895</v>
       </c>
       <c r="T18">
-        <v>5141111370.994</v>
+        <v>5141111370.9940004</v>
       </c>
       <c r="U18">
         <v>1893793661.411</v>
       </c>
       <c r="V18">
-        <v>3425688824.582</v>
+        <v>3425688824.5819998</v>
       </c>
       <c r="W18">
         <v>713625695.125</v>
       </c>
       <c r="X18">
-        <v>714078425.97</v>
+        <v>714078425.97000003</v>
       </c>
       <c r="Y18">
-        <v>439365961.831</v>
+        <v>439365961.83099997</v>
       </c>
       <c r="Z18">
-        <v>666176004.137</v>
+        <v>666176004.13699996</v>
       </c>
       <c r="AA18">
-        <v>2222681617.508</v>
+        <v>2222681617.5079999</v>
       </c>
       <c r="AB18">
-        <v>885473950.012</v>
+        <v>885473950.01199996</v>
       </c>
       <c r="AC18">
-        <v>651446315.853</v>
+        <v>651446315.85300004</v>
       </c>
       <c r="AD18">
         <v>1665658597.944</v>

--- a/reports/Angola_export_top_5_partners_2007-2022.xlsx
+++ b/reports/Angola_export_top_5_partners_2007-2022.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/develop/cipf-comtrade/reports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814ECC91-1034-794C-A6BC-AB6C4EF691CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="840" windowWidth="22240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>partnerDesc</t>
   </si>
@@ -98,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,11 +132,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -165,21 +143,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +187,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,7 +221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,10 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -462,54 +430,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="1:30">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -606,7 +569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -614,43 +577,43 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>6.5942331923993375E-2</v>
+        <v>0.06594233192399337</v>
       </c>
       <c r="D4">
-        <v>0.30466278810469688</v>
+        <v>0.3046627881046969</v>
       </c>
       <c r="E4">
-        <v>5.8694041364050091E-2</v>
+        <v>0.05869404136405009</v>
       </c>
       <c r="F4">
-        <v>5.3801779689267609E-2</v>
+        <v>0.05380177968926761</v>
       </c>
       <c r="G4">
-        <v>7.3520301023402151E-3</v>
+        <v>0.007352030102340215</v>
       </c>
       <c r="H4">
-        <v>3.6002585290615743E-2</v>
+        <v>0.03600258529061574</v>
       </c>
       <c r="I4">
-        <v>4.3322838040124281E-2</v>
+        <v>0.04332283804012428</v>
       </c>
       <c r="J4">
-        <v>1.42138880526576E-2</v>
+        <v>0.0142138880526576</v>
       </c>
       <c r="L4">
-        <v>4.0792483974647187E-2</v>
+        <v>0.04079248397464719</v>
       </c>
       <c r="M4">
-        <v>1.7590340957885899E-2</v>
+        <v>0.0175903409578859</v>
       </c>
       <c r="N4">
-        <v>1.302335201072264E-3</v>
+        <v>0.001302335201072264</v>
       </c>
       <c r="O4">
-        <v>0.24617909428083129</v>
+        <v>0.2461790942808313</v>
       </c>
       <c r="P4">
-        <v>8.5683156708674414E-3</v>
+        <v>0.008568315670867441</v>
       </c>
       <c r="Q4">
         <v>2913186035</v>
@@ -692,7 +655,7 @@
         <v>378529191</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2009</v>
       </c>
@@ -700,40 +663,40 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>5.7207053621885683E-2</v>
+        <v>0.05720705362188568</v>
       </c>
       <c r="D5">
-        <v>0.39257607929946281</v>
+        <v>0.3925760792994628</v>
       </c>
       <c r="E5">
-        <v>7.4563239870007833E-2</v>
+        <v>0.07456323987000783</v>
       </c>
       <c r="F5">
-        <v>9.0049462558989657E-2</v>
+        <v>0.09004946255898966</v>
       </c>
       <c r="G5">
-        <v>2.4256502691260781E-6</v>
+        <v>2.425650269126078E-06</v>
       </c>
       <c r="H5">
-        <v>3.0549230762696378E-2</v>
+        <v>0.03054923076269638</v>
       </c>
       <c r="I5">
-        <v>2.841215396205244E-2</v>
+        <v>0.02841215396205244</v>
       </c>
       <c r="J5">
-        <v>7.1524183699102966E-3</v>
+        <v>0.007152418369910297</v>
       </c>
       <c r="L5">
-        <v>3.4991111102877177E-2</v>
+        <v>0.03499111110287718</v>
       </c>
       <c r="M5">
-        <v>1.821179784582477E-2</v>
+        <v>0.01821179784582477</v>
       </c>
       <c r="O5">
         <v>0.1896774099539851</v>
       </c>
       <c r="P5">
-        <v>7.3895670290501031E-3</v>
+        <v>0.007389567029050103</v>
       </c>
       <c r="Q5">
         <v>2324861006</v>
@@ -772,7 +735,7 @@
         <v>300307657</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -780,46 +743,46 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>7.6771606623782102E-2</v>
+        <v>0.0767716066237821</v>
       </c>
       <c r="D6">
-        <v>0.39844901828462448</v>
+        <v>0.3984490182846245</v>
       </c>
       <c r="E6">
-        <v>4.2063782706612492E-2</v>
+        <v>0.04206378270661249</v>
       </c>
       <c r="F6">
-        <v>9.727464766139729E-2</v>
+        <v>0.09727464766139729</v>
       </c>
       <c r="G6">
-        <v>4.180282412202356E-3</v>
+        <v>0.004180282412202356</v>
       </c>
       <c r="H6">
-        <v>1.3765119446417021E-2</v>
+        <v>0.01376511944641702</v>
       </c>
       <c r="I6">
-        <v>5.1308326747822222E-2</v>
+        <v>0.05130832674782222</v>
       </c>
       <c r="J6">
-        <v>1.6464986476053978E-2</v>
+        <v>0.01646498647605398</v>
       </c>
       <c r="K6">
-        <v>2.7326338174360051E-3</v>
+        <v>0.002732633817436005</v>
       </c>
       <c r="L6">
-        <v>3.2410133441288798E-2</v>
+        <v>0.0324101334412888</v>
       </c>
       <c r="M6">
-        <v>1.8503485222763551E-2</v>
+        <v>0.01850348522276355</v>
       </c>
       <c r="N6">
-        <v>1.454266044028525E-3</v>
+        <v>0.001454266044028525</v>
       </c>
       <c r="O6">
-        <v>0.18941998308680039</v>
+        <v>0.1894199830868004</v>
       </c>
       <c r="P6">
-        <v>6.9612332192061843E-3</v>
+        <v>0.006961233219206184</v>
       </c>
       <c r="Q6">
         <v>4039116578</v>
@@ -864,7 +827,7 @@
         <v>366245201</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -872,37 +835,37 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0.36672813377061908</v>
+        <v>0.3667281337706191</v>
       </c>
       <c r="E7">
-        <v>3.2923560156795158E-2</v>
+        <v>0.03292356015679516</v>
       </c>
       <c r="F7">
-        <v>0.10299995645225581</v>
+        <v>0.1029999564522558</v>
       </c>
       <c r="G7">
-        <v>3.417582756822362E-2</v>
+        <v>0.03417582756822362</v>
       </c>
       <c r="H7">
-        <v>2.5229998204417941E-2</v>
+        <v>0.02522999820441794</v>
       </c>
       <c r="I7">
-        <v>8.1088437511686901E-2</v>
+        <v>0.0810884375116869</v>
       </c>
       <c r="J7">
-        <v>2.4274424685891648E-2</v>
+        <v>0.02427442468589165</v>
       </c>
       <c r="L7">
-        <v>2.5555849587830519E-2</v>
+        <v>0.02555584958783052</v>
       </c>
       <c r="M7">
-        <v>9.7868176792301077E-3</v>
+        <v>0.009786817679230108</v>
       </c>
       <c r="O7">
-        <v>0.24801552626391871</v>
+        <v>0.2480155262639187</v>
       </c>
       <c r="P7">
-        <v>5.7644105500165707E-3</v>
+        <v>0.005764410550016571</v>
       </c>
       <c r="R7">
         <v>24360792847</v>
@@ -938,7 +901,7 @@
         <v>382914749</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -946,43 +909,43 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>4.9673000002653463E-2</v>
+        <v>0.04967300000265346</v>
       </c>
       <c r="D8">
-        <v>0.47570655590940009</v>
+        <v>0.4757065559094001</v>
       </c>
       <c r="E8">
-        <v>1.6605586710518691E-2</v>
+        <v>0.01660558671051869</v>
       </c>
       <c r="F8">
-        <v>9.7823311526943915E-2</v>
+        <v>0.09782331152694392</v>
       </c>
       <c r="G8">
-        <v>1.5382736710452439E-2</v>
+        <v>0.01538273671045244</v>
       </c>
       <c r="H8">
-        <v>1.532918188060395E-2</v>
+        <v>0.01532918188060395</v>
       </c>
       <c r="I8">
-        <v>6.6322235156853052E-2</v>
+        <v>0.06632223515685305</v>
       </c>
       <c r="J8">
-        <v>2.8345505439366901E-2</v>
+        <v>0.0283455054393669</v>
       </c>
       <c r="L8">
-        <v>4.2353158242539261E-2</v>
+        <v>0.04235315824253926</v>
       </c>
       <c r="M8">
-        <v>2.2969716745637709E-2</v>
+        <v>0.02296971674563771</v>
       </c>
       <c r="N8">
-        <v>2.9849314861560409E-3</v>
+        <v>0.002984931486156041</v>
       </c>
       <c r="O8">
-        <v>9.3060112325451319E-2</v>
+        <v>0.09306011232545132</v>
       </c>
       <c r="P8">
-        <v>9.2699052344795106E-3</v>
+        <v>0.009269905234479511</v>
       </c>
       <c r="Q8">
         <v>3519981595</v>
@@ -1024,7 +987,7 @@
         <v>656894003</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>2013</v>
       </c>
@@ -1032,46 +995,46 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>4.8809686149465618E-2</v>
+        <v>0.04880968614946562</v>
       </c>
       <c r="D9">
-        <v>0.47180686811679518</v>
+        <v>0.4718068681167952</v>
       </c>
       <c r="E9">
-        <v>2.0298309428859879E-2</v>
+        <v>0.02029830942885988</v>
       </c>
       <c r="F9">
-        <v>9.9896328053931963E-2</v>
+        <v>0.09989632805393196</v>
       </c>
       <c r="G9">
-        <v>1.5202714956014539E-2</v>
+        <v>0.01520271495601454</v>
       </c>
       <c r="H9">
-        <v>2.4327997655346208E-2</v>
+        <v>0.02432799765534621</v>
       </c>
       <c r="I9">
-        <v>5.9176939061581377E-2</v>
+        <v>0.05917693906158138</v>
       </c>
       <c r="J9">
-        <v>4.4115433959755153E-2</v>
+        <v>0.04411543395975515</v>
       </c>
       <c r="K9">
-        <v>6.2586540279902158E-3</v>
+        <v>0.006258654027990216</v>
       </c>
       <c r="L9">
-        <v>2.5898273473232109E-2</v>
+        <v>0.02589827347323211</v>
       </c>
       <c r="M9">
-        <v>3.6651787884289348E-2</v>
+        <v>0.03665178788428935</v>
       </c>
       <c r="N9">
-        <v>2.9620394074303261E-3</v>
+        <v>0.002962039407430326</v>
       </c>
       <c r="O9">
-        <v>7.4113184002062307E-2</v>
+        <v>0.07411318400206231</v>
       </c>
       <c r="P9">
-        <v>1.167377227441593E-2</v>
+        <v>0.01167377227441593</v>
       </c>
       <c r="Q9">
         <v>3305027169</v>
@@ -1116,7 +1079,7 @@
         <v>790460615</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
@@ -1124,46 +1087,46 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>4.6353249912115917E-2</v>
+        <v>0.04635324991211592</v>
       </c>
       <c r="D10">
         <v>0.4691665128070483</v>
       </c>
       <c r="E10">
-        <v>3.2891342392372888E-2</v>
+        <v>0.03289134239237289</v>
       </c>
       <c r="F10">
-        <v>7.6823490225927923E-2</v>
+        <v>0.07682349022592792</v>
       </c>
       <c r="G10">
-        <v>2.2972432213112751E-2</v>
+        <v>0.02297243221311275</v>
       </c>
       <c r="H10">
-        <v>3.8594143977160912E-2</v>
+        <v>0.03859414397716091</v>
       </c>
       <c r="I10">
-        <v>3.969523189796386E-2</v>
+        <v>0.03969523189796386</v>
       </c>
       <c r="J10">
-        <v>3.2827053493661718E-2</v>
+        <v>0.03282705349366172</v>
       </c>
       <c r="K10">
-        <v>1.664909417304544E-3</v>
+        <v>0.001664909417304544</v>
       </c>
       <c r="L10">
-        <v>3.3256577089656132E-2</v>
+        <v>0.03325657708965613</v>
       </c>
       <c r="M10">
-        <v>6.3512948691956506E-2</v>
+        <v>0.06351294869195651</v>
       </c>
       <c r="N10">
-        <v>1.388259029326578E-2</v>
+        <v>0.01388259029326578</v>
       </c>
       <c r="O10">
-        <v>4.3441361328807798E-2</v>
+        <v>0.0434413613288078</v>
       </c>
       <c r="P10">
-        <v>1.47902553617675E-2</v>
+        <v>0.0147902553617675</v>
       </c>
       <c r="Q10">
         <v>2719654992</v>
@@ -1208,7 +1171,7 @@
         <v>867779323</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
@@ -1216,46 +1179,46 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>3.0526765438024031E-2</v>
+        <v>0.03052676543802403</v>
       </c>
       <c r="D11">
-        <v>0.42212503814269048</v>
+        <v>0.4221250381426905</v>
       </c>
       <c r="E11">
-        <v>4.7150597382904433E-2</v>
+        <v>0.04715059738290443</v>
       </c>
       <c r="F11">
-        <v>7.8890037294574972E-2</v>
+        <v>0.07889003729457497</v>
       </c>
       <c r="G11">
-        <v>3.2594478431890242E-2</v>
+        <v>0.03259447843189024</v>
       </c>
       <c r="H11">
-        <v>3.2634500814860523E-2</v>
+        <v>0.03263450081486052</v>
       </c>
       <c r="I11">
-        <v>4.158573036345297E-2</v>
+        <v>0.04158573036345297</v>
       </c>
       <c r="J11">
-        <v>3.5353198496734482E-2</v>
+        <v>0.03535319849673448</v>
       </c>
       <c r="K11">
-        <v>1.3459143292214719E-2</v>
+        <v>0.01345914329221472</v>
       </c>
       <c r="L11">
-        <v>4.0561352546331912E-2</v>
+        <v>0.04056135254633191</v>
       </c>
       <c r="M11">
-        <v>6.620429078390995E-2</v>
+        <v>0.06620429078390995</v>
       </c>
       <c r="N11">
-        <v>1.319565357154199E-3</v>
+        <v>0.001319565357154199</v>
       </c>
       <c r="O11">
-        <v>3.7311824580053929E-2</v>
+        <v>0.03731182458005393</v>
       </c>
       <c r="P11">
-        <v>1.9609575214849888E-2</v>
+        <v>0.01960957521484989</v>
       </c>
       <c r="Q11">
         <v>1035618608.9</v>
@@ -1267,40 +1230,40 @@
         <v>1599581068.28</v>
       </c>
       <c r="T11">
-        <v>2676339582.8800001</v>
+        <v>2676339582.88</v>
       </c>
       <c r="U11">
-        <v>1105765642.9400001</v>
+        <v>1105765642.94</v>
       </c>
       <c r="V11">
         <v>1107123399.78</v>
       </c>
       <c r="W11">
-        <v>1410793302.5699999</v>
+        <v>1410793302.57</v>
       </c>
       <c r="X11">
-        <v>1199355048.6600001</v>
+        <v>1199355048.66</v>
       </c>
       <c r="Y11">
-        <v>456600594.69999999</v>
+        <v>456600594.7</v>
       </c>
       <c r="Z11">
-        <v>1376041349.1700001</v>
+        <v>1376041349.17</v>
       </c>
       <c r="AA11">
-        <v>2245976425.6399999</v>
+        <v>2245976425.64</v>
       </c>
       <c r="AB11">
-        <v>44766172.240000002</v>
+        <v>44766172.24</v>
       </c>
       <c r="AC11">
-        <v>1265801316.0799999</v>
+        <v>1265801316.08</v>
       </c>
       <c r="AD11">
-        <v>665253613.13999999</v>
+        <v>665253613.14</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -1308,91 +1271,91 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3.1136661535816831E-2</v>
+        <v>0.03113666153581683</v>
       </c>
       <c r="D12">
-        <v>0.49623424030496083</v>
+        <v>0.4962342403049608</v>
       </c>
       <c r="E12">
-        <v>3.2464192571869298E-2</v>
+        <v>0.0324641925718693</v>
       </c>
       <c r="F12">
-        <v>6.9458972118481677E-2</v>
+        <v>0.06945897211848168</v>
       </c>
       <c r="G12">
-        <v>1.7412518449127432E-2</v>
+        <v>0.01741251844912743</v>
       </c>
       <c r="H12">
-        <v>1.810392352977332E-2</v>
+        <v>0.01810392352977332</v>
       </c>
       <c r="I12">
-        <v>4.0490720309677368E-2</v>
+        <v>0.04049072030967737</v>
       </c>
       <c r="J12">
-        <v>3.0345954560225659E-2</v>
+        <v>0.03034595456022566</v>
       </c>
       <c r="K12">
-        <v>4.0933772290844836E-3</v>
+        <v>0.004093377229084484</v>
       </c>
       <c r="L12">
-        <v>4.6655320552545579E-2</v>
+        <v>0.04665532055254558</v>
       </c>
       <c r="M12">
-        <v>3.1438621030220083E-2</v>
+        <v>0.03143862103022008</v>
       </c>
       <c r="N12">
-        <v>6.2118043185180392E-4</v>
+        <v>0.0006211804318518039</v>
       </c>
       <c r="O12">
-        <v>5.437584572255004E-2</v>
+        <v>0.05437584572255004</v>
       </c>
       <c r="P12">
-        <v>2.8580898304571781E-2</v>
+        <v>0.02858089830457178</v>
       </c>
       <c r="Q12">
-        <v>873616866.16999996</v>
+        <v>873616866.17</v>
       </c>
       <c r="R12">
         <v>13923091960.35</v>
       </c>
       <c r="S12">
-        <v>910864067.58000004</v>
+        <v>910864067.58</v>
       </c>
       <c r="T12">
         <v>1948845077.04</v>
       </c>
       <c r="U12">
-        <v>488551728.06999999</v>
+        <v>488551728.07</v>
       </c>
       <c r="V12">
-        <v>507950825.79000002</v>
+        <v>507950825.79</v>
       </c>
       <c r="W12">
         <v>1136068365.75</v>
       </c>
       <c r="X12">
-        <v>851431605.58000004</v>
+        <v>851431605.58</v>
       </c>
       <c r="Y12">
-        <v>114849929.65000001</v>
+        <v>114849929.65</v>
       </c>
       <c r="Z12">
-        <v>1309031634.1199999</v>
+        <v>1309031634.12</v>
       </c>
       <c r="AA12">
-        <v>882089094.53999996</v>
+        <v>882089094.54</v>
       </c>
       <c r="AB12">
-        <v>17428769.670000002</v>
+        <v>17428769.67</v>
       </c>
       <c r="AC12">
-        <v>1525650265.3900001</v>
+        <v>1525650265.39</v>
       </c>
       <c r="AD12">
-        <v>801908540.52999997</v>
+        <v>801908540.53</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>2017</v>
       </c>
@@ -1400,91 +1363,91 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>3.0932186199315408E-2</v>
+        <v>0.03093218619931541</v>
       </c>
       <c r="D13">
-        <v>0.55829058629937045</v>
+        <v>0.5582905862993705</v>
       </c>
       <c r="E13">
-        <v>9.4771779953491606E-3</v>
+        <v>0.009477177995349161</v>
       </c>
       <c r="F13">
-        <v>8.2798195188643134E-2</v>
+        <v>0.08279819518864313</v>
       </c>
       <c r="G13">
-        <v>1.319313021628887E-2</v>
+        <v>0.01319313021628887</v>
       </c>
       <c r="H13">
-        <v>2.668491467085852E-3</v>
+        <v>0.002668491467085852</v>
       </c>
       <c r="I13">
-        <v>3.9787139522936082E-2</v>
+        <v>0.03978713952293608</v>
       </c>
       <c r="J13">
-        <v>9.5914292522866762E-3</v>
+        <v>0.009591429252286676</v>
       </c>
       <c r="K13">
-        <v>7.8486679138539718E-3</v>
+        <v>0.007848667913853972</v>
       </c>
       <c r="L13">
-        <v>3.8463091676585043E-2</v>
+        <v>0.03846309167658504</v>
       </c>
       <c r="M13">
-        <v>2.9387788819731472E-2</v>
+        <v>0.02938778881973147</v>
       </c>
       <c r="N13">
-        <v>5.4509398282673038E-3</v>
+        <v>0.005450939828267304</v>
       </c>
       <c r="O13">
-        <v>3.092701028654166E-2</v>
+        <v>0.03092701028654166</v>
       </c>
       <c r="P13">
-        <v>2.9122560356096491E-2</v>
+        <v>0.02912256035609649</v>
       </c>
       <c r="Q13">
         <v>1079684281.74</v>
       </c>
       <c r="R13">
-        <v>19487066539.259998</v>
+        <v>19487066539.26</v>
       </c>
       <c r="S13">
-        <v>330799771.18000001</v>
+        <v>330799771.18</v>
       </c>
       <c r="T13">
-        <v>2890061159.1300001</v>
+        <v>2890061159.13</v>
       </c>
       <c r="U13">
-        <v>460504641.66000003</v>
+        <v>460504641.66</v>
       </c>
       <c r="V13">
-        <v>93143377.400000006</v>
+        <v>93143377.40000001</v>
       </c>
       <c r="W13">
         <v>1388765374.73</v>
       </c>
       <c r="X13">
-        <v>334787697.72000003</v>
+        <v>334787697.72</v>
       </c>
       <c r="Y13">
-        <v>273956820.39999998</v>
+        <v>273956820.4</v>
       </c>
       <c r="Z13">
-        <v>1342549642.0699999</v>
+        <v>1342549642.07</v>
       </c>
       <c r="AA13">
-        <v>1025777274.8200001</v>
+        <v>1025777274.82</v>
       </c>
       <c r="AB13">
-        <v>190264406.63999999</v>
+        <v>190264406.64</v>
       </c>
       <c r="AC13">
-        <v>1079503617.1199999</v>
+        <v>1079503617.12</v>
       </c>
       <c r="AD13">
         <v>1016519506.83</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>2018</v>
       </c>
@@ -1492,91 +1455,91 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>1.5914638425286069E-2</v>
+        <v>0.01591463842528607</v>
       </c>
       <c r="D14">
-        <v>0.60278602293344574</v>
+        <v>0.6027860229334457</v>
       </c>
       <c r="E14">
-        <v>1.4102539803055029E-2</v>
+        <v>0.01410253980305503</v>
       </c>
       <c r="F14">
-        <v>9.2683294940909586E-2</v>
+        <v>0.09268329494090959</v>
       </c>
       <c r="G14">
-        <v>1.1512279198025289E-2</v>
+        <v>0.01151227919802529</v>
       </c>
       <c r="H14">
-        <v>3.63161807814283E-3</v>
+        <v>0.00363161807814283</v>
       </c>
       <c r="I14">
-        <v>3.5663600226014799E-3</v>
+        <v>0.00356636002260148</v>
       </c>
       <c r="J14">
-        <v>2.6133177305853489E-2</v>
+        <v>0.02613317730585349</v>
       </c>
       <c r="K14">
-        <v>8.5696079307403753E-3</v>
+        <v>0.008569607930740375</v>
       </c>
       <c r="L14">
-        <v>2.8243553662677851E-2</v>
+        <v>0.02824355366267785</v>
       </c>
       <c r="M14">
-        <v>3.0382349576348489E-2</v>
+        <v>0.03038234957634849</v>
       </c>
       <c r="N14">
-        <v>1.5975183076687771E-2</v>
+        <v>0.01597518307668777</v>
       </c>
       <c r="O14">
-        <v>3.373882813876241E-2</v>
+        <v>0.03373882813876241</v>
       </c>
       <c r="P14">
-        <v>2.112956293982593E-2</v>
+        <v>0.02112956293982593</v>
       </c>
       <c r="Q14">
-        <v>647164296.60599995</v>
+        <v>647164296.6059999</v>
       </c>
       <c r="R14">
-        <v>24512124128.175999</v>
+        <v>24512124128.176</v>
       </c>
       <c r="S14">
-        <v>573475815.66799998</v>
+        <v>573475815.668</v>
       </c>
       <c r="T14">
-        <v>3768940127.6160002</v>
+        <v>3768940127.616</v>
       </c>
       <c r="U14">
-        <v>468143596.50700003</v>
+        <v>468143596.507</v>
       </c>
       <c r="V14">
         <v>147678727.991</v>
       </c>
       <c r="W14">
-        <v>145025027.51199999</v>
+        <v>145025027.512</v>
       </c>
       <c r="X14">
-        <v>1062698306.8839999</v>
+        <v>1062698306.884</v>
       </c>
       <c r="Y14">
-        <v>348480696.85799998</v>
+        <v>348480696.858</v>
       </c>
       <c r="Z14">
-        <v>1148516168.0280001</v>
+        <v>1148516168.028</v>
       </c>
       <c r="AA14">
         <v>1235489702.46</v>
       </c>
       <c r="AB14">
-        <v>649626327.83099997</v>
+        <v>649626327.831</v>
       </c>
       <c r="AC14">
-        <v>1371979959.4089999</v>
+        <v>1371979959.409</v>
       </c>
       <c r="AD14">
-        <v>859227735.63100004</v>
+        <v>859227735.631</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>2019</v>
       </c>
@@ -1584,91 +1547,91 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>1.1021418253570529E-3</v>
+        <v>0.001102141825357053</v>
       </c>
       <c r="D15">
-        <v>0.60783061041785535</v>
+        <v>0.6078306104178554</v>
       </c>
       <c r="E15">
-        <v>1.820648744915028E-2</v>
+        <v>0.01820648744915028</v>
       </c>
       <c r="F15">
-        <v>9.5306154820564995E-2</v>
+        <v>0.09530615482056499</v>
       </c>
       <c r="G15">
-        <v>2.2071349257613049E-2</v>
+        <v>0.02207134925761305</v>
       </c>
       <c r="H15">
-        <v>5.8561750885360673E-3</v>
+        <v>0.005856175088536067</v>
       </c>
       <c r="I15">
-        <v>5.6439330508065129E-3</v>
+        <v>0.005643933050806513</v>
       </c>
       <c r="J15">
-        <v>3.1304837636513892E-2</v>
+        <v>0.03130483763651389</v>
       </c>
       <c r="K15">
-        <v>9.4766640746105305E-3</v>
+        <v>0.009476664074610531</v>
       </c>
       <c r="L15">
-        <v>9.8018436104034459E-3</v>
+        <v>0.009801843610403446</v>
       </c>
       <c r="M15">
-        <v>3.5764075675946361E-2</v>
+        <v>0.03576407567594636</v>
       </c>
       <c r="N15">
-        <v>1.7812194488483021E-2</v>
+        <v>0.01781219448848302</v>
       </c>
       <c r="O15">
-        <v>2.5351647167962659E-2</v>
+        <v>0.02535164716796266</v>
       </c>
       <c r="P15">
-        <v>3.1963118559439632E-2</v>
+        <v>0.03196311855943963</v>
       </c>
       <c r="Q15">
-        <v>39051590.475000001</v>
+        <v>39051590.475</v>
       </c>
       <c r="R15">
-        <v>21536930665.450001</v>
+        <v>21536930665.45</v>
       </c>
       <c r="S15">
-        <v>645100544.67999995</v>
+        <v>645100544.6799999</v>
       </c>
       <c r="T15">
-        <v>3376931028.4489999</v>
+        <v>3376931028.449</v>
       </c>
       <c r="U15">
-        <v>782042086.24399996</v>
+        <v>782042086.244</v>
       </c>
       <c r="V15">
         <v>207498659.47</v>
       </c>
       <c r="W15">
-        <v>199978403.04899999</v>
+        <v>199978403.049</v>
       </c>
       <c r="X15">
-        <v>1109207246.4189999</v>
+        <v>1109207246.419</v>
       </c>
       <c r="Y15">
-        <v>335781472.03600001</v>
+        <v>335781472.036</v>
       </c>
       <c r="Z15">
         <v>347303381.259</v>
       </c>
       <c r="AA15">
-        <v>1267208996.9560001</v>
+        <v>1267208996.956</v>
       </c>
       <c r="AB15">
-        <v>631129777.14999998</v>
+        <v>631129777.15</v>
       </c>
       <c r="AC15">
-        <v>898271093.87600005</v>
+        <v>898271093.876</v>
       </c>
       <c r="AD15">
-        <v>1132531755.5050001</v>
+        <v>1132531755.505</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
@@ -1676,91 +1639,91 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.6817403768810942E-3</v>
+        <v>0.004681740376881094</v>
       </c>
       <c r="D16">
-        <v>0.59707903516175831</v>
+        <v>0.5970790351617583</v>
       </c>
       <c r="E16">
-        <v>1.9544568041438941E-2</v>
+        <v>0.01954456804143894</v>
       </c>
       <c r="F16">
-        <v>7.2805772148394315E-2</v>
+        <v>0.07280577214839432</v>
       </c>
       <c r="G16">
-        <v>1.352084233144395E-2</v>
+        <v>0.01352084233144395</v>
       </c>
       <c r="H16">
-        <v>1.058588629142127E-2</v>
+        <v>0.01058588629142127</v>
       </c>
       <c r="I16">
-        <v>1.355048214981663E-2</v>
+        <v>0.01355048214981663</v>
       </c>
       <c r="J16">
-        <v>1.176024855644979E-2</v>
+        <v>0.01176024855644979</v>
       </c>
       <c r="K16">
-        <v>2.0251252123078569E-2</v>
+        <v>0.02025125212307857</v>
       </c>
       <c r="L16">
-        <v>1.01006708156602E-2</v>
+        <v>0.0101006708156602</v>
       </c>
       <c r="M16">
-        <v>3.4448087799483301E-2</v>
+        <v>0.0344480877994833</v>
       </c>
       <c r="N16">
-        <v>3.959682758954005E-2</v>
+        <v>0.03959682758954005</v>
       </c>
       <c r="O16">
-        <v>1.7531590694707909E-2</v>
+        <v>0.01753159069470791</v>
       </c>
       <c r="P16">
-        <v>4.7392201496969058E-2</v>
+        <v>0.04739220149696906</v>
       </c>
       <c r="Q16">
-        <v>103628007.99699999</v>
+        <v>103628007.997</v>
       </c>
       <c r="R16">
         <v>13216049171.826</v>
       </c>
       <c r="S16">
-        <v>432609348.28799999</v>
+        <v>432609348.288</v>
       </c>
       <c r="T16">
         <v>1611519762.112</v>
       </c>
       <c r="U16">
-        <v>299277158.58999997</v>
+        <v>299277158.59</v>
       </c>
       <c r="V16">
         <v>234313358.058</v>
       </c>
       <c r="W16">
-        <v>299933221.31199998</v>
+        <v>299933221.312</v>
       </c>
       <c r="X16">
-        <v>260307286.04100001</v>
+        <v>260307286.041</v>
       </c>
       <c r="Y16">
-        <v>448251450.96100003</v>
+        <v>448251450.961</v>
       </c>
       <c r="Z16">
         <v>223573353.454</v>
       </c>
       <c r="AA16">
-        <v>762491387.94500005</v>
+        <v>762491387.9450001</v>
       </c>
       <c r="AB16">
-        <v>876456197.00899994</v>
+        <v>876456197.0089999</v>
       </c>
       <c r="AC16">
-        <v>388053090.18900001</v>
+        <v>388053090.189</v>
       </c>
       <c r="AD16">
-        <v>1049002943.4299999</v>
+        <v>1049002943.43</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>2021</v>
       </c>
@@ -1768,91 +1731,91 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>1.1816972538104211E-2</v>
+        <v>0.01181697253810421</v>
       </c>
       <c r="D17">
-        <v>0.58187317340379041</v>
+        <v>0.5818731734037904</v>
       </c>
       <c r="E17">
-        <v>1.0475108246769029E-2</v>
+        <v>0.01047510824676903</v>
       </c>
       <c r="F17">
-        <v>8.7270145656632034E-2</v>
+        <v>0.08727014565663203</v>
       </c>
       <c r="G17">
-        <v>1.833436038419646E-2</v>
+        <v>0.01833436038419646</v>
       </c>
       <c r="H17">
-        <v>1.3846883766173429E-2</v>
+        <v>0.01384688376617343</v>
       </c>
       <c r="I17">
-        <v>3.9192740107271331E-3</v>
+        <v>0.003919274010727133</v>
       </c>
       <c r="J17">
-        <v>2.4025828500314982E-3</v>
+        <v>0.002402582850031498</v>
       </c>
       <c r="K17">
-        <v>2.3284278188471789E-2</v>
+        <v>0.02328427818847179</v>
       </c>
       <c r="L17">
-        <v>1.5066032759515499E-2</v>
+        <v>0.0150660327595155</v>
       </c>
       <c r="M17">
-        <v>2.3032700994739079E-2</v>
+        <v>0.02303270099473908</v>
       </c>
       <c r="N17">
-        <v>2.914912998576133E-2</v>
+        <v>0.02914912998576133</v>
       </c>
       <c r="O17">
-        <v>1.3454513598705069E-2</v>
+        <v>0.01345451359870507</v>
       </c>
       <c r="P17">
-        <v>4.0596513208262033E-2</v>
+        <v>0.04059651320826203</v>
       </c>
       <c r="Q17">
-        <v>407356591.17299998</v>
+        <v>407356591.173</v>
       </c>
       <c r="R17">
-        <v>20058426271.912998</v>
+        <v>20058426271.913</v>
       </c>
       <c r="S17">
-        <v>361099627.99800003</v>
+        <v>361099627.998</v>
       </c>
       <c r="T17">
         <v>3008390595.072</v>
       </c>
       <c r="U17">
-        <v>632025040.53900003</v>
+        <v>632025040.539</v>
       </c>
       <c r="V17">
-        <v>477332019.78500003</v>
+        <v>477332019.785</v>
       </c>
       <c r="W17">
-        <v>135105848.45100001</v>
+        <v>135105848.451</v>
       </c>
       <c r="X17">
-        <v>82822225.121000007</v>
+        <v>82822225.12100001</v>
       </c>
       <c r="Y17">
-        <v>802659408.76100004</v>
+        <v>802659408.761</v>
       </c>
       <c r="Z17">
         <v>519358721.333</v>
       </c>
       <c r="AA17">
-        <v>793986998.99399996</v>
+        <v>793986998.994</v>
       </c>
       <c r="AB17">
         <v>1004833529.77</v>
       </c>
       <c r="AC17">
-        <v>463806171.82499999</v>
+        <v>463806171.825</v>
       </c>
       <c r="AD17">
         <v>1399449578.198</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>2022</v>
       </c>
@@ -1860,85 +1823,85 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>2.1932743028298701E-2</v>
+        <v>0.0219327430282987</v>
       </c>
       <c r="D18">
-        <v>0.42720795467584771</v>
+        <v>0.4272079546758477</v>
       </c>
       <c r="E18">
-        <v>7.1214720092373895E-2</v>
+        <v>0.0712147200923739</v>
       </c>
       <c r="F18">
         <v>0.1002655526602106</v>
       </c>
       <c r="G18">
-        <v>3.69340896128195E-2</v>
+        <v>0.0369340896128195</v>
       </c>
       <c r="H18">
-        <v>6.6810181389284365E-2</v>
+        <v>0.06681018138928436</v>
       </c>
       <c r="I18">
-        <v>1.3917627833921239E-2</v>
+        <v>0.01391762783392124</v>
       </c>
       <c r="J18">
-        <v>1.3926457307765429E-2</v>
+        <v>0.01392645730776543</v>
       </c>
       <c r="K18">
-        <v>8.5688225374026105E-3</v>
+        <v>0.008568822537402611</v>
       </c>
       <c r="L18">
-        <v>1.2992230746180619E-2</v>
+        <v>0.01299223074618062</v>
       </c>
       <c r="M18">
-        <v>4.3348292749402613E-2</v>
+        <v>0.04334829274940261</v>
       </c>
       <c r="N18">
-        <v>1.7269132792003181E-2</v>
+        <v>0.01726913279200318</v>
       </c>
       <c r="O18">
-        <v>1.270496205469878E-2</v>
+        <v>0.01270496205469878</v>
       </c>
       <c r="P18">
-        <v>3.2484839913864152E-2</v>
+        <v>0.03248483991386415</v>
       </c>
       <c r="Q18">
-        <v>1124600339.6800001</v>
+        <v>1124600339.68</v>
       </c>
       <c r="R18">
-        <v>21905067246.835999</v>
+        <v>21905067246.836</v>
       </c>
       <c r="S18">
         <v>3651531333.895</v>
       </c>
       <c r="T18">
-        <v>5141111370.9940004</v>
+        <v>5141111370.994</v>
       </c>
       <c r="U18">
         <v>1893793661.411</v>
       </c>
       <c r="V18">
-        <v>3425688824.5819998</v>
+        <v>3425688824.582</v>
       </c>
       <c r="W18">
         <v>713625695.125</v>
       </c>
       <c r="X18">
-        <v>714078425.97000003</v>
+        <v>714078425.97</v>
       </c>
       <c r="Y18">
-        <v>439365961.83099997</v>
+        <v>439365961.831</v>
       </c>
       <c r="Z18">
-        <v>666176004.13699996</v>
+        <v>666176004.137</v>
       </c>
       <c r="AA18">
-        <v>2222681617.5079999</v>
+        <v>2222681617.508</v>
       </c>
       <c r="AB18">
-        <v>885473950.01199996</v>
+        <v>885473950.012</v>
       </c>
       <c r="AC18">
-        <v>651446315.85300004</v>
+        <v>651446315.853</v>
       </c>
       <c r="AD18">
         <v>1665658597.944</v>
